--- a/docs/DQC_US_0009/DQC_0009_ListOfElements.xlsx
+++ b/docs/DQC_US_0009/DQC_0009_ListOfElements.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$AE$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$AH$14</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
   <si>
     <t>Rule element ID</t>
   </si>
@@ -196,29 +205,63 @@
   </si>
   <si>
     <t>Amount of the employer's best estimate of contributions expected to be paid to the plan in the current fiscal period.</t>
+  </si>
+  <si>
+    <t>Rule version</t>
+  </si>
+  <si>
+    <t>Release date</t>
+  </si>
+  <si>
+    <t>Effective date</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -226,7 +269,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -241,85 +284,417 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.0"/>
-    <col customWidth="1" min="2" max="2" width="101.57"/>
-    <col customWidth="1" min="3" max="4" width="48.14"/>
-    <col customWidth="1" min="5" max="5" width="11.57"/>
-    <col customWidth="1" min="6" max="6" width="6.43"/>
-    <col customWidth="1" min="7" max="8" width="48.14"/>
-    <col customWidth="1" min="9" max="9" width="63.0"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="101.5" customWidth="1"/>
+    <col min="6" max="7" width="48.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="10" max="11" width="48.1640625" customWidth="1"/>
+    <col min="12" max="12" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:34" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -338,39 +713,48 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
     </row>
-    <row r="2">
-      <c r="A2" s="4">
-        <v>24.0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="6">
+        <v>42327</v>
+      </c>
+      <c r="C2" s="6">
+        <v>42370</v>
+      </c>
+      <c r="D2" s="4">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -389,39 +773,48 @@
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
     </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="6">
+        <v>42327</v>
+      </c>
+      <c r="C3" s="6">
+        <v>42370</v>
+      </c>
+      <c r="D3" s="4">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -440,39 +833,48 @@
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
     </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="6">
+        <v>42327</v>
+      </c>
+      <c r="C4" s="6">
+        <v>42370</v>
+      </c>
+      <c r="D4" s="4">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -491,39 +893,48 @@
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
     </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>46.0</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="6">
+        <v>42327</v>
+      </c>
+      <c r="C5" s="6">
+        <v>42370</v>
+      </c>
+      <c r="D5" s="4">
+        <v>46</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -542,39 +953,48 @@
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
     </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>19.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="6">
+        <v>42327</v>
+      </c>
+      <c r="C6" s="6">
+        <v>42370</v>
+      </c>
+      <c r="D6" s="4">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -593,39 +1013,48 @@
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
     </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="6">
+        <v>42327</v>
+      </c>
+      <c r="C7" s="6">
+        <v>42370</v>
+      </c>
+      <c r="D7" s="4">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -644,39 +1073,48 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
     </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>41.0</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="6">
+        <v>42327</v>
+      </c>
+      <c r="C8" s="6">
+        <v>42370</v>
+      </c>
+      <c r="D8" s="4">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -695,39 +1133,48 @@
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
     </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>22.0</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="6">
+        <v>42327</v>
+      </c>
+      <c r="C9" s="6">
+        <v>42370</v>
+      </c>
+      <c r="D9" s="4">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -746,39 +1193,48 @@
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
     </row>
-    <row r="10">
-      <c r="A10" s="4">
-        <v>40.0</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="6">
+        <v>42327</v>
+      </c>
+      <c r="C10" s="6">
+        <v>42370</v>
+      </c>
+      <c r="D10" s="4">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -797,39 +1253,48 @@
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
     </row>
-    <row r="11">
-      <c r="A11" s="4">
-        <v>42.0</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="6">
+        <v>42327</v>
+      </c>
+      <c r="C11" s="6">
+        <v>42370</v>
+      </c>
+      <c r="D11" s="4">
+        <v>42</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -848,39 +1313,48 @@
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
     </row>
-    <row r="12">
-      <c r="A12" s="4">
-        <v>47.0</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="6">
+        <v>42327</v>
+      </c>
+      <c r="C12" s="6">
+        <v>42370</v>
+      </c>
+      <c r="D12" s="4">
+        <v>47</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -899,39 +1373,48 @@
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
     </row>
-    <row r="13">
-      <c r="A13" s="4">
-        <v>39.0</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="6">
+        <v>42327</v>
+      </c>
+      <c r="C13" s="6">
+        <v>42370</v>
+      </c>
+      <c r="D13" s="4">
+        <v>39</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -950,39 +1433,48 @@
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
     </row>
-    <row r="14">
-      <c r="A14" s="4">
-        <v>45.0</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="6">
+        <v>42327</v>
+      </c>
+      <c r="C14" s="6">
+        <v>42370</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1001,339 +1493,18 @@
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AE$18"/>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="D1:AH14"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>